--- a/EXCEL/ExcelDataAnalysisFD_Examples/Chapter15.xlsx
+++ b/EXCEL/ExcelDataAnalysisFD_Examples/Chapter15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Dropbox/EXCEL/ExcelDataAnalysisFD_Examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/ExcelDataAnalysisFD_Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9234B614-930F-254C-AA4C-019B0E654775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF3997-E46D-3E4F-874A-3403D15BF531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="521" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="521" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FV" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -738,6 +736,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3488,7 +3488,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B12F8D7-D378-424C-B5F0-25BE3476F46E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3776,7 +3776,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D56CB0-283B-AE42-84D8-A3F8DDE7363E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +4035,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4244DC7-B90B-0D48-A9EF-C08F93AFABC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4076,7 +4076,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047BBA58-C133-504A-BDAA-EFD09EE0EA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,7 +4334,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7427BFD-9E56-014F-9348-C57AFDE82B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,7 +4375,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013F97CA-5C44-8F4C-AEF2-15226A94EE3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4600,7 +4600,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C78EF-D241-444C-B0E6-A256C73CAED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4861,7 +4861,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB10B30-9475-C84B-BEFC-3B43E220CE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,7 +5178,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9989D0EE-3A59-4D44-B363-EB1A3A607F6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5450,7 +5450,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5592030-2124-9946-82E4-A8AEA904C77C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5759,7 +5759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5592030-2124-9946-82E4-A8AEA904C77C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6068,7 +6068,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640779F9-078E-474A-8DAF-CEB72D617254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6322,7 +6322,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4994B781-15DE-7B4C-9C79-2909482BF4A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6587,7 +6587,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2864B4-BEF5-7D42-9FA7-A5235AADFE8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7137,7 +7137,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="51">
-        <f t="shared" ref="I5:I7" si="0">DB($K$3,500,4,H5)</f>
+        <f t="shared" ref="I5:I6" si="0">DB($K$3,500,4,H5)</f>
         <v>2124.4560000000001</v>
       </c>
       <c r="J5" s="51">
@@ -7468,7 +7468,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -7489,76 +7489,76 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
-      <c r="D1" s="107"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="49"/>
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="51">
         <v>8500</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="110" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="51">
         <v>500</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="108">
+      <c r="D3" s="106">
         <v>0</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="F3" s="78">
+      <c r="F3" s="76">
         <v>8500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="26">
         <v>4</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="108">
+      <c r="D4" s="106">
         <v>1</v>
       </c>
       <c r="E4" s="28">
         <f>SYD($B$2,$B$3,$B$4,D4)</f>
         <v>3200</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="76">
         <f>$F$3-(SUM($E$3:E4))</f>
         <v>5300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="76"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="51"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="108">
+      <c r="D5" s="106">
         <v>2</v>
       </c>
       <c r="E5" s="28">
         <f t="shared" ref="E5:E7" si="0">SYD($B$2,$B$3,$B$4,D5)</f>
         <v>2400</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="76">
         <f>$F$3-(SUM($E$3:E5))</f>
         <v>2900</v>
       </c>
@@ -7567,14 +7567,14 @@
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="108">
+      <c r="D6" s="106">
         <v>3</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="76">
         <f>$F$3-(SUM($E$3:E6))</f>
         <v>1300</v>
       </c>
@@ -7583,14 +7583,14 @@
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="108">
+      <c r="D7" s="106">
         <v>4</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="76">
         <f>$F$3-(SUM($E$3:E7))</f>
         <v>500</v>
       </c>
@@ -7599,14 +7599,14 @@
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="111">
         <f>SUM(E4:E7)</f>
         <v>8000</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7693,21 +7693,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="114"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="75">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="63">
@@ -7715,10 +7715,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="76">
         <v>10000</v>
       </c>
     </row>
@@ -7745,10 +7745,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr published="0"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7767,87 +7767,87 @@
       <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="78"/>
+      <c r="D1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D2" s="84">
+      <c r="B2" s="75">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="D2" s="82">
         <v>1</v>
       </c>
       <c r="E2" s="28">
         <f>PPMT($B$2/12,D2,$B$3*12,$B$4)</f>
-        <v>-148.93019241516649</v>
+        <v>-1532.3319783178592</v>
       </c>
       <c r="F2" s="28">
         <f>IPMT($B$2/12,D2,$B$3*12,$B$4)</f>
-        <v>-37.5</v>
+        <v>-281.25000000000006</v>
       </c>
       <c r="G2" s="29">
         <f>SUM(E2:F2)</f>
-        <v>-186.43019241516649</v>
+        <v>-1813.5819783178592</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="63">
         <v>5</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>2</v>
       </c>
       <c r="E3" s="28">
         <f t="shared" ref="E3:E7" si="0">PPMT($B$2/12,D3,$B$3*12,$B$4)</f>
-        <v>-149.48868063672336</v>
+        <v>-1536.6416620068783</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F7" si="1">IPMT($B$2/12,D3,$B$3*12,$B$4)</f>
-        <v>-36.941511778443122</v>
+        <v>-276.94031631098107</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G7" si="2">SUM(E3:F3)</f>
-        <v>-186.43019241516649</v>
+        <v>-1813.5819783178595</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="78">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="84">
+      <c r="B4" s="76">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="82">
         <v>3</v>
       </c>
       <c r="E4" s="28">
         <f t="shared" si="0"/>
-        <v>-150.04926318911106</v>
+        <v>-1540.9634666812724</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" si="1"/>
-        <v>-36.380929226055407</v>
+        <v>-272.61851163658673</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="2"/>
-        <v>-186.43019241516646</v>
+        <v>-1813.581978317859</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" thickBot="1">
@@ -7856,58 +7856,64 @@
       </c>
       <c r="B5" s="33">
         <f>PMT(B2 / 12, B3 * 12, B4)</f>
-        <v>-186.43019241516649</v>
-      </c>
-      <c r="D5" s="84">
+        <v>-1813.5819783178592</v>
+      </c>
+      <c r="D5" s="82">
         <v>4</v>
       </c>
       <c r="E5" s="28">
         <f t="shared" si="0"/>
-        <v>-150.61194792607023</v>
+        <v>-1545.2974264313134</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" si="1"/>
-        <v>-35.818244489096244</v>
+        <v>-268.28455188654561</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="2"/>
-        <v>-186.43019241516646</v>
+        <v>-1813.581978317859</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <v>5</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>-151.17674273079299</v>
+        <v>-1549.6435754431516</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="1"/>
-        <v>-35.253449684373479</v>
+        <v>-263.93840287470755</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="2"/>
-        <v>-186.43019241516646</v>
+        <v>-1813.581978317859</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" thickBot="1">
-      <c r="D7" s="85">
+      <c r="D7" s="83">
         <v>6</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>-151.74365551603347</v>
+        <v>-1554.0019479990856</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="1"/>
-        <v>-34.686536899133003</v>
+        <v>-259.58003031877371</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="2"/>
-        <v>-186.43019241516646</v>
+        <v>-1813.5819783178592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="13">
+        <f>708.76*12*15</f>
+        <v>127576.79999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7944,16 +7950,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="81" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7964,7 +7970,7 @@
       <c r="B2" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="82">
         <v>1</v>
       </c>
       <c r="E2" s="28">
@@ -7987,7 +7993,7 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>2</v>
       </c>
       <c r="E3" s="28">
@@ -8010,7 +8016,7 @@
       <c r="B4" s="9">
         <v>10000</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="82">
         <v>3</v>
       </c>
       <c r="E4" s="28">
@@ -8034,7 +8040,7 @@
         <f>PMT(B2 / 12, B3 * 12, B4)</f>
         <v>-186.43019241516649</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <v>4</v>
       </c>
       <c r="E5" s="28">
@@ -8051,7 +8057,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <v>5</v>
       </c>
       <c r="E6" s="28">
@@ -8068,7 +8074,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" thickBot="1">
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="86" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="32">
@@ -8108,21 +8114,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="88"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="89">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="46">
@@ -8130,7 +8136,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="46">
@@ -8138,7 +8144,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="46">
@@ -8146,18 +8152,18 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="91">
         <v>0.04</v>
       </c>
     </row>
@@ -8165,7 +8171,7 @@
       <c r="A8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="92">
         <f>RATE(B2*12,B3,B4,B5,B7)</f>
         <v>2.9996173167753694E-3</v>
       </c>
@@ -8204,56 +8210,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="95">
         <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="96">
         <v>-1000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="96">
         <v>160000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="96">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="99">
         <f>NPER(B2/12,B3,B4,B5,0)</f>
         <v>229.02287428661674</v>
       </c>
@@ -8347,7 +8353,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="57">
@@ -8365,13 +8371,13 @@
       <c r="F1" s="57">
         <v>4</v>
       </c>
-      <c r="G1" s="103">
+      <c r="G1" s="101">
         <v>5</v>
       </c>
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="39"/>
@@ -8383,7 +8389,7 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="51">
@@ -8407,7 +8413,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="51"/>
@@ -8418,10 +8424,10 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="102">
         <v>0.1</v>
       </c>
       <c r="C5" s="26"/>
@@ -8434,7 +8440,7 @@
       <c r="A6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="104">
         <f>IRR(B3:G3,B5)</f>
         <v>0.10513281217255765</v>
       </c>
@@ -8442,7 +8448,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="105"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
